--- a/fichier_config_PIF.xlsx
+++ b/fichier_config_PIF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demanet\Documents\pifprevis-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7318872C-A134-47AA-AEF2-1858062369AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70696FBF-F657-44F5-ABD0-BC130C070A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="8" activeTab="15" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
+    <workbookView xWindow="5340" yWindow="21480" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="15" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="50">
   <si>
     <t>terminal</t>
   </si>
@@ -181,12 +181,6 @@
   </si>
   <si>
     <t>FI</t>
-  </si>
-  <si>
-    <t>LO</t>
-  </si>
-  <si>
-    <t>SK</t>
   </si>
   <si>
     <t>S4</t>
@@ -287,9 +281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +321,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -433,7 +427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1311,7 +1305,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1323,7 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1337,31 +1331,25 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/fichier_config_PIF.xlsx
+++ b/fichier_config_PIF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demanet\Documents\pifprevis-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70696FBF-F657-44F5-ABD0-BC130C070A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F123CD-FD4A-4708-A186-081E4B606C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="21480" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="15" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="14" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -223,12 +223,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -243,11 +249,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C232DF81-A87C-4B54-B9A4-57A1BF8D7E0A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1304,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950742B2-FA79-431D-B1B2-E7A47C082980}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D183C703-6630-48FD-BED8-403B53F08B46}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,45 +1403,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1447,31 +1426,31 @@
           <x14:formula1>
             <xm:f>Config!$F$2:$F$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C34</xm:sqref>
+          <xm:sqref>C2 C5:C34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{E185E854-3E33-46DF-AB79-C158000C3286}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$14</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A32</xm:sqref>
+          <xm:sqref>A2 A5:A32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{A5DD7100-7207-4E72-B291-757C489E5D98}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B33</xm:sqref>
+          <xm:sqref>B2 B5:B33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1DBD6B6F-B279-4AB0-BDD1-25E6B366A8CE}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D33</xm:sqref>
+          <xm:sqref>D2 D5:D33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5B4AA93-F2E2-4DEA-A565-224E1F2CE48F}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E33</xm:sqref>
+          <xm:sqref>E2 E5:E33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1483,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6774E6FB-522F-4C38-B860-B095448C7B58}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,45 +1485,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1602,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9865776B-AE37-4C21-92AE-6057A88E12F1}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,45 +1606,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1715,7 +1708,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,31 +1730,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1819,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678522F4-4737-4D5F-AACC-2647C128CC8A}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,45 +1837,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1895,6 +1888,20 @@
       </c>
       <c r="E5" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1942,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04E44DF-F248-4410-84B6-7588DE8B1A74}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,59 +1972,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/fichier_config_PIF.xlsx
+++ b/fichier_config_PIF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demanet\Documents\pifprevis-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F123CD-FD4A-4708-A186-081E4B606C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36764888-9693-4D6A-9B10-F489A319589F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="14" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="15" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="51">
   <si>
     <t>terminal</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>FB</t>
+  </si>
+  <si>
+    <t>VL</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C232DF81-A87C-4B54-B9A4-57A1BF8D7E0A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1309,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950742B2-FA79-431D-B1B2-E7A47C082980}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,6 +1360,11 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/fichier_config_PIF.xlsx
+++ b/fichier_config_PIF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demanet\Documents\pifprevis-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demanet\Documents\pifprevis-main - TEST - CNT2AC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36764888-9693-4D6A-9B10-F489A319589F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F937A5-7AD2-491A-9CC8-6220363F772B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="15" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
+    <workbookView xWindow="28680" yWindow="-16380" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="53">
   <si>
     <t>terminal</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>VL</t>
+  </si>
+  <si>
+    <t>C2A</t>
+  </si>
+  <si>
+    <t>C2C</t>
   </si>
 </sst>
 </file>
@@ -589,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7278F8E-AD8F-4219-A2D9-927F5B8E8744}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,6 +713,9 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
       <c r="F7" t="s">
         <v>39</v>
       </c>
@@ -718,6 +727,12 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -725,6 +740,9 @@
       </c>
       <c r="C9" t="s">
         <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -816,10 +834,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6994DD87-4FF5-425E-8F3B-A7B04C79CB98}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,11 +881,67 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{88564283-06A4-44A4-8CD2-343F5A1E88F7}">
           <x14:formula1>
             <xm:f>Config!$F$2:$F$10</xm:f>
@@ -884,7 +958,7 @@
           <x14:formula1>
             <xm:f>Config!$E$2:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B33</xm:sqref>
+          <xm:sqref>B2:B3 B8:B33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2ECD66C8-89D6-4E81-926D-3B2371C4878A}">
           <x14:formula1>
@@ -897,6 +971,12 @@
             <xm:f>Config!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{CA094406-A9B6-485B-B923-24A5825BFD04}">
+          <x14:formula1>
+            <xm:f>Config!$E$2:$E$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -908,9 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62610BD-9CEF-45D3-9B3E-CF451D0389AD}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -998,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A25505-A66A-4A9D-95B6-0F5B73E373D0}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1077,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCE93B8-1891-48C1-845E-915CB04B72BA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -1156,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B534B55-2CC7-479A-8B14-4AD5483615B6}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1235,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C232DF81-A87C-4B54-B9A4-57A1BF8D7E0A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1314,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950742B2-FA79-431D-B1B2-E7A47C082980}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -1592,7 +1670,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69147284-50DD-4FA8-9115-F8D2B818044F}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1822,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678522F4-4737-4D5F-AACC-2647C128CC8A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,7 +2159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B3C2BD-92D4-480B-ABD9-703428D57CC7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -2160,7 +2238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FC6E79-BA6B-4D41-9E31-77F3AD472718}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
